--- a/biology/Zoologie/Classification_de_Sibley-Ahlquist/Classification_de_Sibley-Ahlquist.xlsx
+++ b/biology/Zoologie/Classification_de_Sibley-Ahlquist/Classification_de_Sibley-Ahlquist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification de Sibley - Ahlquist est une nouvelle classification des oiseaux, proposée par Charles Gald Sibley, Jon Edward Ahlquist et Burt L Monroe, dans une étude publiée en 1988, dans la revue The Auk. Les chercheurs se sont basés sur l'étude de l'hybridation de l'ADN, une approche nouvelle à cette époque. Elle a considérablement modifié la liste traditionnelle des ordres et des familles d'oiseaux[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification de Sibley - Ahlquist est une nouvelle classification des oiseaux, proposée par Charles Gald Sibley, Jon Edward Ahlquist et Burt L Monroe, dans une étude publiée en 1988, dans la revue The Auk. Les chercheurs se sont basés sur l'étude de l'hybridation de l'ADN, une approche nouvelle à cette époque. Elle a considérablement modifié la liste traditionnelle des ordres et des familles d'oiseaux. 
 Acceptée par un grand nombre d'ornithologues nord-américains, dont l'Union des ornithologues américains, elle n'a été que partiellement et très progressivement adoptée dans les autres régions du monde où l'on a seulement intégré certaines modifications à la classification traditionnelle (voir la classification adoptée par la CINFO, réunie en 1991, ou celle du Handbook of the Birds of the World).
 La vision traditionnelle de l'évolution des Neornithes (oiseaux modernes) est de placer à la base de l'arbre phylogénétique, après les ratites et tinamous, les groupes d'oiseaux marins tels que les manchots, les grèbes, les plongeons et pélicans, etc. 
 La nouvelle classification a montré que les canards et les gallinacés étaient les parents les plus proches des ratites (qui intègrent les tinamous), formant les paléognathes. Les Galloanserae constituant une lignée ancienne parmi les Néognathes. Les groupes d'oiseaux marins traditionnellement considérés comme archaïques sont maintenant placés dans un ordre des Ciconiiformes élargi, qui comprend aussi les rapaces diurnes (Accipitridae, Sagittariidae et Falconidae) et les limicoles (Scolopacidae, Charadriidae, Laridae, etc.).
 Cette classification compte 23 ordres.
-Cependant ces analyses ADN, considérées parfois comme définitives, ont fait perdre de vue les autres caractères taxonomiques (biogéographiques, morphologiques, éthologiques, écologiques et physico-chimiques) qui, réunis, servent à appuyer les études moléculaires et contribuent ainsi à une meilleure classification. Par ailleurs, ces études fondées sur les hybridations d'ADN nucléaire cèdent maintenant la place aux analyses sur l'ADN mitochondrial permettant de déterminer des affinités à la fois sur des taxons relativement éloignés et très proches[2].
-La classification reconnue actuellement par le plus grand nombre d'ornithologues prend en compte à la fois les avancées de la classification de Sibley-Ahlquist modérées par le recours aux autres caractères taxonomiques et tenant compte des travaux les plus récents[3].
+Cependant ces analyses ADN, considérées parfois comme définitives, ont fait perdre de vue les autres caractères taxonomiques (biogéographiques, morphologiques, éthologiques, écologiques et physico-chimiques) qui, réunis, servent à appuyer les études moléculaires et contribuent ainsi à une meilleure classification. Par ailleurs, ces études fondées sur les hybridations d'ADN nucléaire cèdent maintenant la place aux analyses sur l'ADN mitochondrial permettant de déterminer des affinités à la fois sur des taxons relativement éloignés et très proches.
+La classification reconnue actuellement par le plus grand nombre d'ornithologues prend en compte à la fois les avancées de la classification de Sibley-Ahlquist modérées par le recours aux autres caractères taxonomiques et tenant compte des travaux les plus récents.
 </t>
         </is>
       </c>
@@ -519,14 +531,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ratitae
-Struthioniformes
-Struthionidae
+          <t>Ratitae</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Struthioniformes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Struthionidae
 Rheidae
 Casuariidae
-Apterygidae
-Tinamiformes
-Tinamidae</t>
+Apterygidae</t>
         </is>
       </c>
     </row>
@@ -551,51 +569,324 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Paleognathae</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ratitae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Tinamiformes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tinamidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Neognathae</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Galloanserae
-Gallomorphae
-Craciformes
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Galloanserae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Gallomorphae</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Craciformes
 Cracidae
 Megapodiidae
 Galliformes
 Phasianidae
 Numididae
-Odontophoridae
-Anserimorphae
-Anseriformes
+Odontophoridae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Neognathae</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Galloanserae</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Anserimorphae</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Anseriformes
 Anhimidae
 Anseranatidae
 Dendrocygnidae
-Anatidae
-Turnicae
-Turniciformes
-Turnicidae
-Picae
-Piciformes
-Indicatoridae
+Anatidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Neognathae</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Turnicae</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Turniciformes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Turnicidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Neognathae</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Picae</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Piciformes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Indicatoridae
 Picidae
 Megalaimidae
 Lybiidae
-Ramphastidae
-Coraciae
-Galbulimorphae
-Galbuliformes
+Ramphastidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Neognathae</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Coraciae</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Galbulimorphae</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Galbuliformes
 Galbulidae
-Bucconidae
-Bucerotimorphae
-Bucerotiformes
+Bucconidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Neognathae</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Coraciae</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Bucerotimorphae</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Bucerotiformes
 Bucerotidae
 Bucorvidae
 Upupiformes
 Upupidae
 Phoeniculidae
-Rhinopomastidae
-Coraciimorphae
-Trogoniformes
+Rhinopomastidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Neognathae</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Coraciae</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Coraciimorphae</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Trogoniformes
 Trogonidae
 Coraciiformes
 Coraciidae
@@ -605,30 +896,218 @@
 Alcedinidae
 Halcyonidae
 Cerylidae
-Meropidae
-Coliae
-Coliiformes
-Coliidae
-Passerae
-Cuculimorphae
-Cuculiformes
+Meropidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Neognathae</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Coliae</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Coliiformes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Coliidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Neognathae</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Passerae</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Cuculimorphae</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Cuculiformes
 Cuculidae
 Centropidae
 Coccyzidae
 Opisthocomidae
 Crotophagidae
-Neomorphidae
-Psittacimorphae
-Psittaciformes
-Psittacidae
-Apodimorphae
-Apodiformes
+Neomorphidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Neognathae</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Passerae</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Psittacimorphae</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Psittaciformes
+Psittacidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Neognathae</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Passerae</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Apodimorphae</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Apodiformes
 Apodidae
 Hemiprocnidae
 Trochiliformes
-Trochilidae
-Strigimorphae
-Musophagiformes
+Trochilidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Neognathae</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Passerae</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Strigimorphae</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Musophagiformes
 Musophagidae
 Strigiformes
 Tytonidae
@@ -639,9 +1118,47 @@
 Steatornithidae
 Nyctibiidae
 Eurostopodidae
-Caprimulgidae
-Passerimorphae
-Columbiformes
+Caprimulgidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_de_Sibley-Ahlquist</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Neognathae</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Passerae</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Passerimorphae</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Columbiformes
 Raphidae
 Columbidae
 Gruiformes
